--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ptgs2</t>
   </si>
   <si>
     <t>Cav1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.336935541912117</v>
+        <v>0.8976106666666667</v>
       </c>
       <c r="H2">
-        <v>0.336935541912117</v>
+        <v>2.692832</v>
       </c>
       <c r="I2">
-        <v>0.00851884251167479</v>
+        <v>0.02124022359297476</v>
       </c>
       <c r="J2">
-        <v>0.00851884251167479</v>
+        <v>0.02124022359297476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N2">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O2">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P2">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q2">
-        <v>271.6738388370765</v>
+        <v>748.096436746855</v>
       </c>
       <c r="R2">
-        <v>271.6738388370765</v>
+        <v>6732.867930721696</v>
       </c>
       <c r="S2">
-        <v>0.007393974186543916</v>
+        <v>0.01809440957672193</v>
       </c>
       <c r="T2">
-        <v>0.007393974186543916</v>
+        <v>0.01809440957672193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.336935541912117</v>
+        <v>0.8976106666666667</v>
       </c>
       <c r="H3">
-        <v>0.336935541912117</v>
+        <v>2.692832</v>
       </c>
       <c r="I3">
-        <v>0.00851884251167479</v>
+        <v>0.02124022359297476</v>
       </c>
       <c r="J3">
-        <v>0.00851884251167479</v>
+        <v>0.02124022359297476</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N3">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O3">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P3">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q3">
-        <v>5.700082365874606</v>
+        <v>15.92312642248178</v>
       </c>
       <c r="R3">
-        <v>5.700082365874606</v>
+        <v>143.308137802336</v>
       </c>
       <c r="S3">
-        <v>0.0001551355185867795</v>
+        <v>0.0003851369383380766</v>
       </c>
       <c r="T3">
-        <v>0.0001551355185867795</v>
+        <v>0.0003851369383380766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.336935541912117</v>
+        <v>0.8976106666666667</v>
       </c>
       <c r="H4">
-        <v>0.336935541912117</v>
+        <v>2.692832</v>
       </c>
       <c r="I4">
-        <v>0.00851884251167479</v>
+        <v>0.02124022359297476</v>
       </c>
       <c r="J4">
-        <v>0.00851884251167479</v>
+        <v>0.02124022359297476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N4">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O4">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P4">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q4">
-        <v>0.3829050439817818</v>
+        <v>1.207061644796444</v>
       </c>
       <c r="R4">
-        <v>0.3829050439817818</v>
+        <v>10.863554803168</v>
       </c>
       <c r="S4">
-        <v>1.042128319464956E-05</v>
+        <v>2.919552441697997E-05</v>
       </c>
       <c r="T4">
-        <v>1.042128319464956E-05</v>
+        <v>2.919552441697996E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.336935541912117</v>
+        <v>0.8976106666666667</v>
       </c>
       <c r="H5">
-        <v>0.336935541912117</v>
+        <v>2.692832</v>
       </c>
       <c r="I5">
-        <v>0.00851884251167479</v>
+        <v>0.02124022359297476</v>
       </c>
       <c r="J5">
-        <v>0.00851884251167479</v>
+        <v>0.02124022359297476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N5">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O5">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P5">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q5">
-        <v>35.24759995284838</v>
+        <v>112.9305495461013</v>
       </c>
       <c r="R5">
-        <v>35.24759995284838</v>
+        <v>1016.374945914912</v>
       </c>
       <c r="S5">
-        <v>0.000959311523349445</v>
+        <v>0.002731481553497772</v>
       </c>
       <c r="T5">
-        <v>0.000959311523349445</v>
+        <v>0.002731481553497772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.6847847288882</v>
+        <v>20.60823266666667</v>
       </c>
       <c r="H6">
-        <v>19.6847847288882</v>
+        <v>61.824698</v>
       </c>
       <c r="I6">
-        <v>0.497696325029903</v>
+        <v>0.4876540419484541</v>
       </c>
       <c r="J6">
-        <v>0.497696325029903</v>
+        <v>0.4876540419484541</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N6">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O6">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P6">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q6">
-        <v>15872.00033463195</v>
+        <v>17175.53723245654</v>
       </c>
       <c r="R6">
-        <v>15872.00033463195</v>
+        <v>154579.8350921089</v>
       </c>
       <c r="S6">
-        <v>0.4319781443271923</v>
+        <v>0.4154293352014315</v>
       </c>
       <c r="T6">
-        <v>0.4319781443271923</v>
+        <v>0.4154293352014315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.6847847288882</v>
+        <v>20.60823266666667</v>
       </c>
       <c r="H7">
-        <v>19.6847847288882</v>
+        <v>61.824698</v>
       </c>
       <c r="I7">
-        <v>0.497696325029903</v>
+        <v>0.4876540419484541</v>
       </c>
       <c r="J7">
-        <v>0.497696325029903</v>
+        <v>0.4876540419484541</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N7">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O7">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P7">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q7">
-        <v>333.0159046813761</v>
+        <v>365.5788709751504</v>
       </c>
       <c r="R7">
-        <v>333.0159046813761</v>
+        <v>3290.209838776354</v>
       </c>
       <c r="S7">
-        <v>0.009063482201535491</v>
+        <v>0.008842354406586154</v>
       </c>
       <c r="T7">
-        <v>0.009063482201535491</v>
+        <v>0.008842354406586154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.6847847288882</v>
+        <v>20.60823266666667</v>
       </c>
       <c r="H8">
-        <v>19.6847847288882</v>
+        <v>61.824698</v>
       </c>
       <c r="I8">
-        <v>0.497696325029903</v>
+        <v>0.4876540419484541</v>
       </c>
       <c r="J8">
-        <v>0.497696325029903</v>
+        <v>0.4876540419484541</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N8">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O8">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P8">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q8">
-        <v>22.37046088878575</v>
+        <v>27.71291400908911</v>
       </c>
       <c r="R8">
-        <v>22.37046088878575</v>
+        <v>249.416226081802</v>
       </c>
       <c r="S8">
-        <v>0.0006088426145881748</v>
+        <v>0.0006702996993616432</v>
       </c>
       <c r="T8">
-        <v>0.0006088426145881748</v>
+        <v>0.0006702996993616431</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.6847847288882</v>
+        <v>20.60823266666667</v>
       </c>
       <c r="H9">
-        <v>19.6847847288882</v>
+        <v>61.824698</v>
       </c>
       <c r="I9">
-        <v>0.497696325029903</v>
+        <v>0.4876540419484541</v>
       </c>
       <c r="J9">
-        <v>0.497696325029903</v>
+        <v>0.4876540419484541</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>104.612293950402</v>
+        <v>125.812397</v>
       </c>
       <c r="N9">
-        <v>104.612293950402</v>
+        <v>377.437191</v>
       </c>
       <c r="O9">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="P9">
-        <v>0.1126105479746504</v>
+        <v>0.1285994726722751</v>
       </c>
       <c r="Q9">
-        <v>2059.270486408837</v>
+        <v>2592.771149727036</v>
       </c>
       <c r="R9">
-        <v>2059.270486408837</v>
+        <v>23334.94034754332</v>
       </c>
       <c r="S9">
-        <v>0.05604585588658707</v>
+        <v>0.06271205264107474</v>
       </c>
       <c r="T9">
-        <v>0.05604585588658707</v>
+        <v>0.06271205264107474</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.5300781631252</v>
+        <v>20.573189</v>
       </c>
       <c r="H10">
-        <v>19.5300781631252</v>
+        <v>61.719567</v>
       </c>
       <c r="I10">
-        <v>0.4937848324584224</v>
+        <v>0.4868248012284415</v>
       </c>
       <c r="J10">
-        <v>0.4937848324584224</v>
+        <v>0.4868248012284414</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>806.30804721675</v>
+        <v>833.4308676666666</v>
       </c>
       <c r="N10">
-        <v>806.30804721675</v>
+        <v>2500.292603</v>
       </c>
       <c r="O10">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="P10">
-        <v>0.867955262280142</v>
+        <v>0.8518935545813505</v>
       </c>
       <c r="Q10">
-        <v>15747.25918569997</v>
+        <v>17146.33075894032</v>
       </c>
       <c r="R10">
-        <v>15747.25918569997</v>
+        <v>154316.9768304629</v>
       </c>
       <c r="S10">
-        <v>0.4285831437664059</v>
+        <v>0.4147229103768564</v>
       </c>
       <c r="T10">
-        <v>0.4285831437664059</v>
+        <v>0.4147229103768564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.5300781631252</v>
+        <v>20.573189</v>
       </c>
       <c r="H11">
-        <v>19.5300781631252</v>
+        <v>61.719567</v>
       </c>
       <c r="I11">
-        <v>0.4937848324584224</v>
+        <v>0.4868248012284415</v>
       </c>
       <c r="J11">
-        <v>0.4937848324584224</v>
+        <v>0.4868248012284414</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.9174267977979</v>
+        <v>17.73945766666667</v>
       </c>
       <c r="N11">
-        <v>16.9174267977979</v>
+        <v>53.218373</v>
       </c>
       <c r="O11">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="P11">
-        <v>0.01821086824579412</v>
+        <v>0.01813243333584592</v>
       </c>
       <c r="Q11">
-        <v>330.3986676799419</v>
+        <v>364.9572153338323</v>
       </c>
       <c r="R11">
-        <v>330.3986676799419</v>
+        <v>3284.614938004491</v>
       </c>
       <c r="S11">
-        <v>0.008992250525671855</v>
+        <v>0.008827318254511156</v>
       </c>
       <c r="T11">
-        <v>0.008992250525671855</v>
+        <v>0.008827318254511154</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.5300781631252</v>
+        <v>20.573189</v>
       </c>
       <c r="H12">
-        <v>19.5300781631252</v>
+        <v>61.719567</v>
       </c>
       <c r="I12">
-        <v>0.4937848324584224</v>
+        <v>0.4868248012284415</v>
       </c>
       <c r="J12">
-        <v>0.4937848324584224</v>
+        <v>0.4868248012284414</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.13643411380345</v>
+        <v>1.344749666666667</v>
       </c>
       <c r="N12">
-        <v>1.13643411380345</v>
+        <v>4.034249</v>
       </c>
       <c r="O12">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="P12">
-        <v>0.00122332149941351</v>
+        <v>0.001374539410528448</v>
       </c>
       <c r="Q12">
-        <v>22.1946470698233</v>
+        <v>27.66578905002033</v>
       </c>
       <c r="R12">
-        <v>22.1946470698233</v>
+        <v>248.992101450183</v>
       </c>
       <c r="S12">
-        <v>0.0006040576016306863</v>
+        <v>0.0006691598753111709</v>
       </c>
       <c r="T12">
-        <v>0.0006040576016306863</v>
+        <v>0.0006691598753111707</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20.573189</v>
+      </c>
+      <c r="H13">
+        <v>61.719567</v>
+      </c>
+      <c r="I13">
+        <v>0.4868248012284415</v>
+      </c>
+      <c r="J13">
+        <v>0.4868248012284414</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>125.812397</v>
+      </c>
+      <c r="N13">
+        <v>377.437191</v>
+      </c>
+      <c r="O13">
+        <v>0.1285994726722751</v>
+      </c>
+      <c r="P13">
+        <v>0.1285994726722751</v>
+      </c>
+      <c r="Q13">
+        <v>2588.362222024033</v>
+      </c>
+      <c r="R13">
+        <v>23295.2599982163</v>
+      </c>
+      <c r="S13">
+        <v>0.06260541272176273</v>
+      </c>
+      <c r="T13">
+        <v>0.06260541272176273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.5300781631252</v>
-      </c>
-      <c r="H13">
-        <v>19.5300781631252</v>
-      </c>
-      <c r="I13">
-        <v>0.4937848324584224</v>
-      </c>
-      <c r="J13">
-        <v>0.4937848324584224</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>104.612293950402</v>
-      </c>
-      <c r="N13">
-        <v>104.612293950402</v>
-      </c>
-      <c r="O13">
-        <v>0.1126105479746504</v>
-      </c>
-      <c r="P13">
-        <v>0.1126105479746504</v>
-      </c>
-      <c r="Q13">
-        <v>2043.086277675181</v>
-      </c>
-      <c r="R13">
-        <v>2043.086277675181</v>
-      </c>
-      <c r="S13">
-        <v>0.05560538056471386</v>
-      </c>
-      <c r="T13">
-        <v>0.05560538056471386</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.180912</v>
+      </c>
+      <c r="H14">
+        <v>0.542736</v>
+      </c>
+      <c r="I14">
+        <v>0.004280933230129748</v>
+      </c>
+      <c r="J14">
+        <v>0.004280933230129748</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>833.4308676666666</v>
+      </c>
+      <c r="N14">
+        <v>2500.292603</v>
+      </c>
+      <c r="O14">
+        <v>0.8518935545813505</v>
+      </c>
+      <c r="P14">
+        <v>0.8518935545813505</v>
+      </c>
+      <c r="Q14">
+        <v>150.777645131312</v>
+      </c>
+      <c r="R14">
+        <v>1356.998806181808</v>
+      </c>
+      <c r="S14">
+        <v>0.003646899426340654</v>
+      </c>
+      <c r="T14">
+        <v>0.003646899426340653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.180912</v>
+      </c>
+      <c r="H15">
+        <v>0.542736</v>
+      </c>
+      <c r="I15">
+        <v>0.004280933230129748</v>
+      </c>
+      <c r="J15">
+        <v>0.004280933230129748</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.73945766666667</v>
+      </c>
+      <c r="N15">
+        <v>53.218373</v>
+      </c>
+      <c r="O15">
+        <v>0.01813243333584592</v>
+      </c>
+      <c r="P15">
+        <v>0.01813243333584592</v>
+      </c>
+      <c r="Q15">
+        <v>3.209280765392</v>
+      </c>
+      <c r="R15">
+        <v>28.883526888528</v>
+      </c>
+      <c r="S15">
+        <v>7.762373641053521E-05</v>
+      </c>
+      <c r="T15">
+        <v>7.762373641053518E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.180912</v>
+      </c>
+      <c r="H16">
+        <v>0.542736</v>
+      </c>
+      <c r="I16">
+        <v>0.004280933230129748</v>
+      </c>
+      <c r="J16">
+        <v>0.004280933230129748</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.344749666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.034249</v>
+      </c>
+      <c r="O16">
+        <v>0.001374539410528448</v>
+      </c>
+      <c r="P16">
+        <v>0.001374539410528448</v>
+      </c>
+      <c r="Q16">
+        <v>0.243281351696</v>
+      </c>
+      <c r="R16">
+        <v>2.189532165264</v>
+      </c>
+      <c r="S16">
+        <v>5.88431143865419E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.884311438654188E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.180912</v>
+      </c>
+      <c r="H17">
+        <v>0.542736</v>
+      </c>
+      <c r="I17">
+        <v>0.004280933230129748</v>
+      </c>
+      <c r="J17">
+        <v>0.004280933230129748</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>125.812397</v>
+      </c>
+      <c r="N17">
+        <v>377.437191</v>
+      </c>
+      <c r="O17">
+        <v>0.1285994726722751</v>
+      </c>
+      <c r="P17">
+        <v>0.1285994726722751</v>
+      </c>
+      <c r="Q17">
+        <v>22.760972366064</v>
+      </c>
+      <c r="R17">
+        <v>204.848751294576</v>
+      </c>
+      <c r="S17">
+        <v>0.0005505257559399051</v>
+      </c>
+      <c r="T17">
+        <v>0.000550525755939905</v>
       </c>
     </row>
   </sheetData>
